--- a/research/Monte_carlo/output/sensitivity_results_for_report.xlsx
+++ b/research/Monte_carlo/output/sensitivity_results_for_report.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kwrwater-my.sharepoint.com/personal/alex_hockin_kwrwater_nl/Documents/VEWIN Permatie/pipepermcalc/research/Monte_carlo/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{281B2A1F-EACC-47C1-9449-F127ED4D3B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC3758CB-9D42-45BD-9F1E-588270428516}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{281B2A1F-EACC-47C1-9449-F127ED4D3B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAB79E02-2ADD-4144-98EC-B754A0CC3F1A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{2406CEAD-82FB-4CF0-ABAD-77E91FCE0AED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21140" xr2:uid="{2406CEAD-82FB-4CF0-ABAD-77E91FCE0AED}"/>
   </bookViews>
   <sheets>
     <sheet name="df_analysis" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">df_analysis!$E$66:$H$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">df_analysis!$E$74:$H$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
   <si>
     <t>W</t>
   </si>
@@ -306,6 +306,209 @@
   <si>
     <t>median_values</t>
   </si>
+  <si>
+    <t>log_distribution_coefficient</t>
+  </si>
+  <si>
+    <t>stagnation_factor</t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>bw</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>stag</t>
+    </r>
+  </si>
+  <si>
+    <t>logical change</t>
+  </si>
+  <si>
+    <t>non relevant, see report</t>
+  </si>
+  <si>
+    <t>when 10% changed the plume size still dominates the contact length so Lc does not change. But the Lc does change when the standard deviation is added</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>non linear change</t>
+  </si>
+  <si>
+    <t>inc 10% = 1/1.1, INC 1.6 = 1/1.6</t>
+  </si>
+  <si>
+    <t>Median conc ug/L</t>
+  </si>
+  <si>
+    <r>
+      <t>No impact on LogF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>conc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and LogK</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>conc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>? &gt;&gt; rounding, almost 10</t>
+    </r>
+  </si>
+  <si>
+    <t>Linear because plume is in middle of pipe in median scenario??</t>
+  </si>
+  <si>
+    <t>No impact, because plume size &lt;  length pipe?</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Not exactly 10% bc of effects on Conc (Kpw, Dp, from Fconc)</t>
+  </si>
+  <si>
+    <r>
+      <t>No impact on LogF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>conc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and LogK</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>conc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>? &gt;&gt; rounding, almost 10 &gt;&gt; rounding, almost 10</t>
+    </r>
+  </si>
+  <si>
+    <t>Lower than 10% due to stagnation factor?</t>
+  </si>
+  <si>
+    <t>Difference gemiddeld – na stagnatie due to stagnation factor?</t>
+  </si>
 </sst>
 </file>
 
@@ -315,7 +518,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,13 +536,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -412,8 +608,35 @@
       <name val="Lucida Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,11 +646,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -449,7 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD9D9"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,102 +716,109 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20% - Accent6" xfId="5" builtinId="50"/>
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -907,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2E1DA2-E553-489B-9336-8780D91A841A}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,52 +1146,54 @@
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="24.28515625" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
     <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F1" s="30"/>
-      <c r="G1" s="29">
+      <c r="F1" s="20"/>
+      <c r="G1" s="19">
         <v>0.1</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B3">
@@ -995,7 +1222,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B4">
@@ -1024,7 +1251,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B5">
@@ -1053,7 +1280,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B6">
@@ -1082,7 +1309,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B7">
@@ -1111,7 +1338,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B8">
@@ -1140,7 +1367,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B9">
@@ -1169,7 +1396,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -1198,7 +1425,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B11">
@@ -1227,7 +1454,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B12">
@@ -1256,7 +1483,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B13">
@@ -1285,7 +1512,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B14">
@@ -1314,14 +1541,26 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="31" t="s">
-        <v>33</v>
+      <c r="A15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>0.65955588499999995</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.70094857015822498</v>
+      </c>
+      <c r="E15">
+        <v>0.65955588499999995</v>
       </c>
       <c r="F15">
-        <v>2.0432807696251611E-7</v>
+        <v>1.8575277419950909E-7</v>
       </c>
       <c r="G15">
-        <v>1.1733083503802261E-5</v>
+        <v>1.066643876987155E-5</v>
       </c>
       <c r="H15">
         <v>2.0432807696251611E-7</v>
@@ -1329,1058 +1568,1569 @@
       <c r="I15">
         <v>1.1733083503802261E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F18" s="30"/>
-      <c r="G18" s="29">
+      <c r="K15">
+        <f>1/1.6</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>1.386849984938447</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1.525534983432292</v>
+      </c>
+      <c r="E16">
+        <v>1.386849984938447</v>
+      </c>
+      <c r="F16">
+        <v>2.0432807696251611E-7</v>
+      </c>
+      <c r="G16">
+        <v>1.066643954891114E-5</v>
+      </c>
+      <c r="H16">
+        <v>2.0432807696251611E-7</v>
+      </c>
+      <c r="I16">
+        <v>1.1733083503802261E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <v>2.0432807696251611E-7</v>
+      </c>
+      <c r="G17">
+        <v>1.1733083503802261E-5</v>
+      </c>
+      <c r="H17">
+        <v>2.0432807696251611E-7</v>
+      </c>
+      <c r="I17">
+        <v>1.1733083503802261E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="33">
+        <f>F17*1000</f>
+        <v>2.043280769625161E-4</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" ref="G18:I18" si="0">G17*1000</f>
+        <v>1.173308350380226E-2</v>
+      </c>
+      <c r="H18" s="33">
+        <f t="shared" si="0"/>
+        <v>2.043280769625161E-4</v>
+      </c>
+      <c r="I18" s="33">
+        <f t="shared" si="0"/>
+        <v>1.173308350380226E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F20" s="20"/>
+      <c r="G20" s="19">
         <v>0.1</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="27"/>
-      <c r="D19" t="s">
+      <c r="M20" s="18"/>
+      <c r="O20" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="17"/>
+      <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I21" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="22" t="s">
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="21">
-        <f>C3/B3</f>
+      <c r="E22" s="14">
+        <f t="shared" ref="E22:E33" si="1">C3/B3</f>
         <v>213.37880347825651</v>
       </c>
-      <c r="F20" s="23">
-        <f>(F3-F$15)/F$15</f>
+      <c r="F22" s="27">
+        <f t="shared" ref="F22:I33" si="2">(F3-F$17)/F$17</f>
         <v>0.10000015007777019</v>
       </c>
-      <c r="G20" s="23">
-        <f>(G3-G$15)/G$15</f>
+      <c r="G22" s="27">
+        <f t="shared" si="2"/>
         <v>0.10000008837419361</v>
       </c>
-      <c r="H20" s="20">
-        <f>(H3-H$15)/H$15</f>
+      <c r="H22" s="27">
+        <f t="shared" si="2"/>
         <v>213.44122293535113</v>
       </c>
-      <c r="I20" s="20">
-        <f>(I3-I$15)/I$15</f>
+      <c r="I22" s="27">
+        <f t="shared" si="2"/>
         <v>213.41555735078072</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="22" t="s">
+      <c r="K22" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="30">
+        <f>(C3+B3)/B3</f>
+        <v>214.37880347825651</v>
+      </c>
+      <c r="M22" s="14">
+        <f t="shared" ref="M22:M35" si="3">H3/H$17</f>
+        <v>214.44122293535113</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" ref="O22:O35" si="4">I3/I$17</f>
+        <v>214.41555735078072</v>
+      </c>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="21">
-        <f>C4/B4</f>
+      <c r="E23" s="14">
+        <f t="shared" si="1"/>
         <v>1.4534490934475555</v>
       </c>
-      <c r="F21" s="20">
-        <f>(F4-F$15)/F$15</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="20">
-        <f>(G4-G$15)/G$15</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="20">
-        <f>(H4-H$15)/H$15</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="20">
-        <f>(I4-I$15)/I$15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="22" t="s">
+      <c r="F23" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="30">
+        <f t="shared" ref="L23:L35" si="5">(C4+B4)/B4</f>
+        <v>2.4534490934475555</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="21">
-        <f>C5/B5</f>
+      <c r="E24" s="14">
+        <f t="shared" si="1"/>
         <v>0.58309518948452999</v>
       </c>
-      <c r="F22" s="20">
-        <f>(F5-F$15)/F$15</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="20">
-        <f>(G5-G$15)/G$15</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="20">
-        <f>(H5-H$15)/H$15</f>
+      <c r="F24" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="27">
+        <f t="shared" si="2"/>
         <v>-8.4744715199237985E-2</v>
       </c>
-      <c r="I22" s="20">
-        <f>(I5-I$15)/I$15</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="20">
-        <f>H22*0.1/(1-E22)</f>
-        <v>-2.0327113782750029E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="22" t="s">
+      <c r="I24" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="30">
+        <f t="shared" si="5"/>
+        <v>1.58309518948453</v>
+      </c>
+      <c r="M24" s="14">
+        <f t="shared" si="3"/>
+        <v>0.91525528480076201</v>
+      </c>
+      <c r="N24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E25" s="14">
         <f>C6/B6</f>
         <v>1.0991648946397541</v>
       </c>
-      <c r="F23" s="23">
-        <f>(F6-F$15)/F$15</f>
+      <c r="F25" s="27">
+        <f t="shared" si="2"/>
         <v>9.9981830640974975E-2</v>
       </c>
-      <c r="G23" s="20">
-        <f>(G6-G$15)/G$15</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="20">
-        <f>(H6-H$15)/H$15</f>
+      <c r="G25" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="27">
+        <f t="shared" si="2"/>
         <v>0.99172479356893706</v>
       </c>
-      <c r="I23" s="20">
-        <f>(I6-I$15)/I$15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="22" t="s">
+      <c r="I25" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="30">
+        <f>(C6+B6)/B6</f>
+        <v>2.0991648946397539</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="3"/>
+        <v>1.9917247935689371</v>
+      </c>
+      <c r="N25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="21">
-        <f>C7/B7</f>
+      <c r="E26" s="14">
+        <f t="shared" si="1"/>
         <v>0.15690245130973512</v>
       </c>
-      <c r="F24" s="23">
-        <f>(F7-F$15)/F$15</f>
+      <c r="F26" s="27">
+        <f t="shared" si="2"/>
         <v>9.9981830640974975E-2</v>
       </c>
-      <c r="G24" s="23">
-        <f>(G7-G$15)/G$15</f>
+      <c r="G26" s="27">
+        <f t="shared" si="2"/>
         <v>-9.0909090909090592E-2</v>
       </c>
-      <c r="H24" s="20">
-        <f>(H7-H$15)/H$15</f>
+      <c r="H26" s="27">
+        <f t="shared" si="2"/>
         <v>0.15687378743337874</v>
       </c>
-      <c r="I24" s="20">
-        <f>(I7-I$15)/I$15</f>
+      <c r="I26" s="27">
+        <f t="shared" si="2"/>
         <v>-0.13562288776560633</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="22" t="s">
+      <c r="K26" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="30">
+        <f t="shared" si="5"/>
+        <v>1.1569024513097352</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="3"/>
+        <v>1.1568737874333788</v>
+      </c>
+      <c r="N26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="14">
+        <f t="shared" si="4"/>
+        <v>0.86437711223439362</v>
+      </c>
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="21">
-        <f>C8/B8</f>
+      <c r="D27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="1"/>
         <v>0.59365861869895875</v>
       </c>
-      <c r="F25" s="20">
-        <f>(F8-F$15)/F$15</f>
+      <c r="F27" s="27">
+        <f t="shared" si="2"/>
         <v>-9.0897226415900256E-2</v>
       </c>
-      <c r="G25" s="20">
-        <f>(G8-G$15)/G$15</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="20">
-        <f>(H8-H$15)/H$15</f>
+      <c r="G27" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="27">
+        <f t="shared" si="2"/>
         <v>-0.37247750212679925</v>
       </c>
-      <c r="I25" s="20">
-        <f>(I8-I$15)/I$15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="22" t="s">
+      <c r="I27" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="30">
+        <f>(C8+B8)/B8</f>
+        <v>1.5936586186989588</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="3"/>
+        <v>0.62752249787320069</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="21">
-        <f>C9/B9</f>
+      <c r="E28" s="14">
+        <f t="shared" si="1"/>
         <v>-1.6949879799790468E-2</v>
       </c>
-      <c r="F26" s="23">
-        <f>(F9-F$15)/F$15</f>
+      <c r="F28" s="27">
+        <f t="shared" si="2"/>
         <v>9.9981830640976002E-2</v>
       </c>
-      <c r="G26" s="23">
-        <f>(G9-G$15)/G$15</f>
+      <c r="G28" s="27">
+        <f t="shared" si="2"/>
         <v>6.2081637757268861E-2</v>
       </c>
-      <c r="H26" s="20">
-        <f>(H9-H$15)/H$15</f>
+      <c r="H28" s="27">
+        <f t="shared" si="2"/>
         <v>0.56922228578357137</v>
       </c>
-      <c r="I26" s="20">
-        <f>(I9-I$15)/I$15</f>
+      <c r="I28" s="27">
+        <f t="shared" si="2"/>
         <v>0.32949374261091025</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="22" t="s">
+      <c r="K28" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="30">
+        <f t="shared" si="5"/>
+        <v>0.98305012020020954</v>
+      </c>
+      <c r="M28" s="14">
+        <f t="shared" si="3"/>
+        <v>1.5692222857835714</v>
+      </c>
+      <c r="N28" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="14">
+        <f t="shared" si="4"/>
+        <v>1.3294937426109104</v>
+      </c>
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="21">
-        <f>C10/B10</f>
+      <c r="E29" s="14">
+        <f t="shared" si="1"/>
         <v>0.19056248748186769</v>
       </c>
-      <c r="F27" s="23">
-        <f>(F10-F$15)/F$15</f>
+      <c r="F29" s="27">
+        <f t="shared" si="2"/>
         <v>9.9981830640974975E-2</v>
       </c>
-      <c r="G27" s="23">
-        <f>(G10-G$15)/G$15</f>
+      <c r="G29" s="27">
+        <f t="shared" si="2"/>
         <v>2.547036841923726E-2</v>
       </c>
-      <c r="H27" s="20">
-        <f>(H10-H$15)/H$15</f>
+      <c r="H29" s="27">
+        <f t="shared" si="2"/>
         <v>1.0601648496923068</v>
       </c>
-      <c r="I27" s="20">
-        <f>(I10-I$15)/I$15</f>
+      <c r="I29" s="27">
+        <f t="shared" si="2"/>
         <v>0.21019190958814149</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="22" t="s">
+      <c r="K29" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="30">
+        <f t="shared" si="5"/>
+        <v>1.1905624874818677</v>
+      </c>
+      <c r="M29" s="14">
+        <f t="shared" si="3"/>
+        <v>2.0601648496923071</v>
+      </c>
+      <c r="N29" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="14">
+        <f t="shared" si="4"/>
+        <v>1.2101919095881415</v>
+      </c>
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="21">
-        <f>C11/B11</f>
+      <c r="E30" s="14">
+        <f t="shared" si="1"/>
         <v>9.7728194428506596E-2</v>
       </c>
-      <c r="F28" s="20">
-        <f>(F11-F$15)/F$15</f>
+      <c r="F30" s="27">
+        <f t="shared" si="2"/>
         <v>-8.6303713678682586E-2</v>
       </c>
-      <c r="G28" s="23">
-        <f>(G11-G$15)/G$15</f>
+      <c r="G30" s="27">
+        <f t="shared" si="2"/>
         <v>-5.5449136370952196E-2</v>
       </c>
-      <c r="H28" s="20">
-        <f>(H11-H$15)/H$15</f>
+      <c r="H30" s="27">
+        <f t="shared" si="2"/>
         <v>-8.4428018088110832E-2</v>
       </c>
-      <c r="I28" s="20">
-        <f>(I11-I$15)/I$15</f>
+      <c r="I30" s="27">
+        <f t="shared" si="2"/>
         <v>-5.4224234826392013E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="22" t="s">
+      <c r="K30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="30">
+        <f t="shared" si="5"/>
+        <v>1.0977281944285067</v>
+      </c>
+      <c r="M30" s="14">
+        <f t="shared" si="3"/>
+        <v>0.91557198191188915</v>
+      </c>
+      <c r="O30" s="14">
+        <f t="shared" si="4"/>
+        <v>0.94577576517360795</v>
+      </c>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="21">
-        <f>C12/B12</f>
+      <c r="E31" s="14">
+        <f t="shared" si="1"/>
         <v>0.97207810998674093</v>
       </c>
-      <c r="F29" s="20">
-        <f>(F12-F$15)/F$15</f>
+      <c r="F31" s="27">
+        <f t="shared" si="2"/>
         <v>-2.3652314057253123E-2</v>
       </c>
-      <c r="G29" s="20">
-        <f>(G12-G$15)/G$15</f>
+      <c r="G31" s="27">
+        <f t="shared" si="2"/>
         <v>-6.2973021188383483E-3</v>
       </c>
-      <c r="H29" s="20">
-        <f>(H12-H$15)/H$15</f>
+      <c r="H31" s="27">
+        <f t="shared" si="2"/>
         <v>-0.2075870945951647</v>
       </c>
-      <c r="I29" s="20">
-        <f>(I12-I$15)/I$15</f>
+      <c r="I31" s="27">
+        <f t="shared" si="2"/>
         <v>-5.9560774942159549E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0.73609999999999998</v>
-      </c>
-      <c r="C30" s="22" t="s">
+      <c r="K31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="30">
+        <f t="shared" si="5"/>
+        <v>1.972078109986741</v>
+      </c>
+      <c r="M31" s="14">
+        <f t="shared" si="3"/>
+        <v>0.79241290540483533</v>
+      </c>
+      <c r="O31" s="14">
+        <f t="shared" si="4"/>
+        <v>0.9404392250578405</v>
+      </c>
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="21">
-        <f>C13/B13</f>
+      <c r="E32" s="14">
+        <f t="shared" si="1"/>
         <v>0.30914729205473973</v>
       </c>
-      <c r="F30" s="20">
-        <f>(F13-F$15)/F$15</f>
+      <c r="F32" s="27">
+        <f t="shared" si="2"/>
         <v>-6.7830193217045434E-2</v>
       </c>
-      <c r="G30" s="23">
-        <f>(G13-G$15)/G$15</f>
+      <c r="G32" s="27">
+        <f t="shared" si="2"/>
         <v>-4.3422103927938389E-2</v>
       </c>
-      <c r="H30" s="20">
-        <f>(H13-H$15)/H$15</f>
+      <c r="H32" s="27">
+        <f t="shared" si="2"/>
         <v>-0.19518377515354313</v>
       </c>
-      <c r="I30" s="20">
-        <f>(I13-I$15)/I$15</f>
+      <c r="I32" s="27">
+        <f t="shared" si="2"/>
         <v>-0.12823895768011226</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f>0.5*A30</f>
-        <v>0.36804999999999999</v>
-      </c>
-      <c r="C31" s="22" t="s">
+      <c r="K32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="30">
+        <f t="shared" si="5"/>
+        <v>1.3091472920547398</v>
+      </c>
+      <c r="M32" s="14">
+        <f t="shared" si="3"/>
+        <v>0.80481622484645687</v>
+      </c>
+      <c r="O32" s="14">
+        <f t="shared" si="4"/>
+        <v>0.87176104231988771</v>
+      </c>
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="21">
-        <f>C14/B14</f>
+      <c r="E33" s="14">
+        <f t="shared" si="1"/>
         <v>1.4786791855504049</v>
       </c>
-      <c r="F31" s="20">
-        <f>(F14-F$15)/F$15</f>
+      <c r="F33" s="27">
+        <f t="shared" si="2"/>
         <v>-1.633005342622262E-2</v>
       </c>
-      <c r="G31" s="20">
-        <f>(G14-G$15)/G$15</f>
+      <c r="G33" s="27">
+        <f t="shared" si="2"/>
         <v>-4.3354859965588841E-3</v>
       </c>
-      <c r="H31" s="20">
-        <f>(H14-H$15)/H$15</f>
+      <c r="H33" s="27">
+        <f t="shared" si="2"/>
         <v>-0.21606589986829317</v>
       </c>
-      <c r="I31" s="20">
-        <f>(I14-I$15)/I$15</f>
+      <c r="I33" s="27">
+        <f t="shared" si="2"/>
         <v>-6.2226941846173452E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f>6.25*A30</f>
-        <v>4.600625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f>A32-1.03574</f>
-        <v>3.5648849999999999</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="K33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="30">
+        <f t="shared" si="5"/>
+        <v>2.4786791855504053</v>
+      </c>
+      <c r="M33" s="14">
+        <f t="shared" si="3"/>
+        <v>0.78393410013170683</v>
+      </c>
+      <c r="O33" s="14">
+        <f t="shared" si="4"/>
+        <v>0.9377730581538265</v>
+      </c>
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C34" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" ref="E34:E35" si="6">C15/B15</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="27">
+        <f>(F15-F$17)/F$17</f>
+        <v>-9.0909203664725172E-2</v>
+      </c>
+      <c r="G34" s="27">
+        <f t="shared" ref="G34:I34" si="7">(G15-G$17)/G$17</f>
+        <v>-9.090915730592479E-2</v>
+      </c>
+      <c r="H34" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="27">
+        <f t="shared" ref="F35:I35" si="8">(F16-F$17)/F$17</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="27">
+        <f t="shared" si="8"/>
+        <v>-9.0909090909091467E-2</v>
+      </c>
+      <c r="H35" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M35" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="11">
         <v>0.1</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G37" s="11">
         <v>0.1</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="10"/>
-      <c r="E34" s="9"/>
-      <c r="F34" t="s">
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G38" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H38" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I38" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="4" t="s">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E39" s="24">
         <v>213.37880347825651</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F39" s="12">
         <v>0.10000015007777019</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G39" s="12">
         <v>0.10000008837419361</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H39" s="12">
         <v>213.44122293535113</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I39" s="12">
         <v>213.41555735078072</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="4" t="s">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E40" s="24">
         <v>1.4534490934475555</v>
       </c>
-      <c r="F36" s="18">
-        <v>0</v>
-      </c>
-      <c r="G36" s="18">
-        <v>0</v>
-      </c>
-      <c r="H36" s="18">
-        <v>0</v>
-      </c>
-      <c r="I36" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="4" t="s">
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0</v>
+      </c>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E41" s="24">
         <v>0.58309518948452999</v>
       </c>
-      <c r="F37" s="18">
-        <v>0</v>
-      </c>
-      <c r="G37" s="18">
-        <v>0</v>
-      </c>
-      <c r="H37" s="18">
+      <c r="F41" s="13">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
         <v>-8.4744715199237985E-2</v>
       </c>
-      <c r="I37" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D38" s="4" t="s">
+      <c r="I41" s="13">
+        <v>0</v>
+      </c>
+      <c r="L41" s="32"/>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E42" s="24">
         <v>1.0991648946397541</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F42" s="12">
         <v>9.9981830640974975E-2</v>
       </c>
-      <c r="G38" s="15">
-        <v>0</v>
-      </c>
-      <c r="H38" s="15">
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+      <c r="H42" s="12">
         <v>0.99172479356893706</v>
       </c>
-      <c r="I38" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="4" t="s">
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E43" s="24">
         <v>0.15690245130973512</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F43" s="12">
         <v>9.9981830640974975E-2</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G43" s="12">
         <v>-9.0909090909090592E-2</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H43" s="12">
         <v>0.15687378743337874</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I43" s="12">
         <v>-0.13562288776560633</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="16">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="24">
         <v>0.59365861869895875</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F44" s="13">
         <v>-9.0897226415900256E-2</v>
       </c>
-      <c r="G40" s="18">
-        <v>0</v>
-      </c>
-      <c r="H40" s="18">
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
         <v>-0.37247750212679925</v>
       </c>
-      <c r="I40" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="4" t="s">
+      <c r="I44" s="13">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E45" s="24">
         <v>-1.6949879799790468E-2</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F45" s="13">
         <v>9.9981830640976002E-2</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G45" s="13">
         <v>6.2081637757268861E-2</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H45" s="13">
         <v>0.56922228578357137</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I45" s="13">
         <v>0.32949374261091025</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="4" t="s">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E46" s="24">
         <v>0.19056248748186769</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F46" s="12">
         <v>9.9981830640974975E-2</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G46" s="12">
         <v>2.547036841923726E-2</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H46" s="12">
         <v>1.0601648496923068</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I46" s="12">
         <v>0.21019190958814149</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="4" t="s">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E47" s="24">
         <v>9.7728194428506596E-2</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F47" s="12">
         <v>-8.6303713678682586E-2</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G47" s="12">
         <v>-5.5449136370952196E-2</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H47" s="12">
         <v>-8.4428018088110832E-2</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I47" s="12">
         <v>-5.4224234826392013E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="4" t="s">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E48" s="24">
         <v>0.97207810998674093</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F48" s="12">
         <v>-2.3652314057253123E-2</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G48" s="12">
         <v>-6.2973021188383483E-3</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H48" s="12">
         <v>-0.2075870945951647</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I48" s="12">
         <v>-5.9560774942159549E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D45" s="4" t="s">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E49" s="24">
         <v>0.30914729205473973</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F49" s="12">
         <v>-6.7830193217045434E-2</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G49" s="12">
         <v>-4.3422103927938389E-2</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H49" s="12">
         <v>-0.19518377515354313</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I49" s="12">
         <v>-0.12823895768011226</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="8" t="s">
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E50" s="24">
         <v>1.4786791855504049</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F50" s="13">
         <v>-1.633005342622262E-2</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G50" s="13">
         <v>-4.3354859965588841E-3</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H50" s="13">
         <v>-0.21606589986829317</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I50" s="13">
         <v>-6.2226941846173452E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D47" s="7" t="s">
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="24">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <v>-9.0909203664725172E-2</v>
+      </c>
+      <c r="G51" s="13">
+        <v>-9.090915730592479E-2</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="24">
+        <v>0</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0</v>
+      </c>
+      <c r="G52" s="13">
+        <v>-9.0909090909091467E-2</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D53" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="11">
+    <row r="54" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="11">
         <v>0.1</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G55" s="11">
         <v>0.1</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="10"/>
-      <c r="E50" s="9"/>
-      <c r="F50" t="s">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="10"/>
+      <c r="E56" s="9"/>
+      <c r="F56" t="s">
         <v>13</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G56" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="3">
-        <v>10.000015007777019</v>
-      </c>
-      <c r="G51" s="3">
-        <v>10.000008837419362</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
-        <v>9.998183064097601</v>
-      </c>
-      <c r="G52" s="3">
-        <v>6.2081637757268862</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="3">
-        <v>9.998183064097498</v>
-      </c>
-      <c r="G53" s="3">
-        <v>2.5470368419237261</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="3">
-        <v>9.998183064097498</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="H56" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F57" s="3">
-        <v>-9.0897226415900256</v>
+        <v>10.000015007777019</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+        <v>10.000008837419362</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="35" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F58" s="3">
-        <v>-1.6330053426222619</v>
+        <v>9.998183064097601</v>
       </c>
       <c r="G58" s="3">
-        <v>-0.43354859965588843</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+        <v>6.2081637757268862</v>
+      </c>
+      <c r="H58" s="36"/>
+      <c r="I58" s="35" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F59" s="3">
-        <v>-2.3652314057253121</v>
+        <v>9.998183064097498</v>
       </c>
       <c r="G59" s="3">
-        <v>-0.62973021188383482</v>
-      </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+        <v>2.5470368419237261</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F60" s="3">
-        <v>-6.7830193217045434</v>
+        <v>9.998183064097498</v>
       </c>
       <c r="G60" s="3">
-        <v>-4.3422103927938389</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" s="35"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="35"/>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D63" s="4"/>
+      <c r="E63" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="29">
+        <v>-9.0897226415900256</v>
+      </c>
+      <c r="G63" s="29">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="35"/>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>-1.6330053426222619</v>
+      </c>
+      <c r="G64" s="3">
+        <v>-0.43354859965588843</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="3">
+        <v>-2.3652314057253121</v>
+      </c>
+      <c r="G65" s="3">
+        <v>-0.62973021188383482</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="35"/>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3">
+        <v>-6.7830193217045434</v>
+      </c>
+      <c r="G66" s="3">
+        <v>-4.3422103927938389</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="35"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F67" s="3">
         <v>-8.6303713678682588</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G67" s="3">
         <v>-5.5449136370952194</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="8"/>
-      <c r="E62" s="8" t="s">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F68" s="3">
         <v>9.998183064097498</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G68" s="3">
         <v>-9.0909090909090597</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D63" s="7" t="s">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D69" s="4"/>
+      <c r="E69" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="3">
+        <v>-9.0909203664725169</v>
+      </c>
+      <c r="G69" s="3">
+        <v>-9.0909157305924797</v>
+      </c>
+      <c r="H69" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D70" s="4"/>
+      <c r="E70" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>-9.0909090909091468</v>
+      </c>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D71" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="6" t="s">
+      <c r="I71" s="34"/>
+    </row>
+    <row r="72" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G66" t="s">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
         <v>13</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E67" s="5" t="s">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F75" s="1">
         <v>213.37880347825651</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G75" s="1">
         <v>21344.122293535114</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H75" s="1">
         <v>21341.555735078073</v>
       </c>
     </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E68" s="4" t="s">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E76" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F76" s="3">
         <v>0.19056248748186769</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G76" s="3">
         <v>106.01648496923069</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H76" s="3">
         <v>21.01919095881415</v>
       </c>
     </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E69" s="5" t="s">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E77" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F77" s="1">
         <v>1.0991648946397541</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G77" s="1">
         <v>99.172479356893703</v>
       </c>
-      <c r="H69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E70" s="4" t="s">
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F78" s="3">
         <v>-1.6949879799790468E-2</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G78" s="3">
         <v>56.922228578357135</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H78" s="3">
         <v>32.949374261091023</v>
       </c>
     </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E71" s="5" t="s">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F79" s="1">
         <v>0.15690245130973512</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G79" s="1">
         <v>15.687378743337874</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H79" s="1">
         <v>-13.562288776560633</v>
       </c>
     </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E72" s="5" t="s">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E80" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F80" s="1">
         <v>1.4534490934475555</v>
       </c>
-      <c r="G72" s="1">
-        <v>0</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E73" s="4" t="s">
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E81" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F81" s="3">
         <v>9.7728194428506596E-2</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G81" s="3">
         <v>-8.4428018088110832</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H81" s="3">
         <v>-5.4224234826392017</v>
       </c>
     </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E74" s="5" t="s">
+    <row r="82" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E82" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F82" s="1">
         <v>0.58309518948452999</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G82" s="1">
         <v>-8.4744715199237994</v>
       </c>
-      <c r="H74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E75" s="4" t="s">
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F83" s="3">
         <v>0.30914729205473973</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G83" s="3">
         <v>-19.518377515354313</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H83" s="3">
         <v>-12.823895768011226</v>
       </c>
     </row>
-    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E76" s="4" t="s">
+    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E84" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F84" s="3">
         <v>0.97207810998674093</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G84" s="3">
         <v>-20.758709459516471</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H84" s="3">
         <v>-5.9560774942159549</v>
       </c>
     </row>
-    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E77" s="4" t="s">
+    <row r="85" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E85" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F85" s="3">
         <v>1.4786791855504049</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G85" s="3">
         <v>-21.606589986829317</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H85" s="3">
         <v>-6.2226941846173451</v>
       </c>
     </row>
-    <row r="78" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F78" s="1">
+    <row r="86" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
         <v>0.59365861869895875</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G86" s="1">
         <v>-37.247750212679925</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="14"/>
+    </row>
+    <row r="87" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E87" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" s="24">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E88" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="24">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E66:H66" xr:uid="{0986100B-BEDB-447D-A74A-640F1693873C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E67:H78">
-      <sortCondition descending="1" ref="G66"/>
+  <autoFilter ref="E74:H74" xr:uid="{0986100B-BEDB-447D-A74A-640F1693873C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E75:H86">
+      <sortCondition descending="1" ref="G74"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/research/Monte_carlo/output/sensitivity_results_for_report.xlsx
+++ b/research/Monte_carlo/output/sensitivity_results_for_report.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kwrwater-my.sharepoint.com/personal/alex_hockin_kwrwater_nl/Documents/VEWIN Permatie/pipepermcalc/research/Monte_carlo/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="8_{281B2A1F-EACC-47C1-9449-F127ED4D3B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAB79E02-2ADD-4144-98EC-B754A0CC3F1A}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{281B2A1F-EACC-47C1-9449-F127ED4D3B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E388454-E71F-4CB2-A20A-52746408AFE7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21140" xr2:uid="{2406CEAD-82FB-4CF0-ABAD-77E91FCE0AED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{2406CEAD-82FB-4CF0-ABAD-77E91FCE0AED}"/>
   </bookViews>
   <sheets>
     <sheet name="df_analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">df_analysis!$E$74:$H$74</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
   <si>
     <t>W</t>
   </si>
@@ -508,6 +509,12 @@
   </si>
   <si>
     <t>Difference gemiddeld – na stagnatie due to stagnation factor?</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>exposure</t>
   </si>
 </sst>
 </file>
@@ -806,7 +813,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +820,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1134,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2E1DA2-E553-489B-9336-8780D91A841A}">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
@@ -2692,10 +2699,10 @@
       <c r="G56" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="34" t="s">
+      <c r="H56" t="s">
         <v>52</v>
       </c>
-      <c r="I56" s="34" t="s">
+      <c r="I56" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2710,10 +2717,10 @@
       <c r="G57" s="3">
         <v>10.000008837419362</v>
       </c>
-      <c r="H57" s="35" t="s">
+      <c r="H57" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="I57" s="35" t="s">
+      <c r="I57" s="34" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2728,8 +2735,8 @@
       <c r="G58" s="3">
         <v>6.2081637757268862</v>
       </c>
-      <c r="H58" s="36"/>
-      <c r="I58" s="35" t="s">
+      <c r="H58" s="35"/>
+      <c r="I58" s="34" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2744,7 +2751,7 @@
       <c r="G59" s="3">
         <v>2.5470368419237261</v>
       </c>
-      <c r="I59" s="35" t="s">
+      <c r="I59" s="34" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2759,10 +2766,10 @@
       <c r="G60" s="3">
         <v>0</v>
       </c>
-      <c r="H60" s="35" t="s">
+      <c r="H60" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="35"/>
+      <c r="I60" s="34"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
@@ -2775,7 +2782,7 @@
       <c r="G61" s="3">
         <v>0</v>
       </c>
-      <c r="H61" s="36" t="s">
+      <c r="H61" s="35" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2790,7 +2797,7 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="35"/>
+      <c r="I62" s="34"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
@@ -2804,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="3"/>
-      <c r="I63" s="35"/>
+      <c r="I63" s="34"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
@@ -2818,7 +2825,7 @@
         <v>-0.43354859965588843</v>
       </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="35" t="s">
+      <c r="I64" s="34" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2834,7 +2841,7 @@
         <v>-0.62973021188383482</v>
       </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="35"/>
+      <c r="I65" s="34"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
@@ -2848,7 +2855,7 @@
         <v>-4.3422103927938389</v>
       </c>
       <c r="H66" s="3"/>
-      <c r="I66" s="35"/>
+      <c r="I66" s="34"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
@@ -2889,10 +2896,9 @@
       <c r="G69" s="3">
         <v>-9.0909157305924797</v>
       </c>
-      <c r="H69" s="37" t="s">
+      <c r="H69" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I69" s="34"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D70" s="4"/>
@@ -2905,13 +2911,11 @@
       <c r="G70" s="3">
         <v>-9.0909090909091468</v>
       </c>
-      <c r="I70" s="34"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D71" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I71" s="34"/>
     </row>
     <row r="72" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3136,4 +3140,112 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBF52AA-0C01-447C-9C32-21FFC1CC032C}">
+  <dimension ref="C3:Q11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C4" s="37">
+        <v>0.33</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>D4*C4</f>
+        <v>0.66</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C5" s="37">
+        <f>1-C4</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f>D5*C5</f>
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>SUM(E4:E5)</f>
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>33.3*2</f>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G10">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <f>6*7</f>
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <f>SUM(G10:H10)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>I10/10</f>
+        <v>4.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>